--- a/medicine/Maladies infectieuses/Carlo_Alberto_Brusa/Carlo_Alberto_Brusa.xlsx
+++ b/medicine/Maladies infectieuses/Carlo_Alberto_Brusa/Carlo_Alberto_Brusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlo Alberto Brusa est un avocat italien à la cour de Paris[1], notamment connu lors de la pandémie de Covid-19 pour ses positions en 2020 et 2021 contre le port du masque, les restrictions de liberté et la vaccination.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlo Alberto Brusa est un avocat italien à la cour de Paris, notamment connu lors de la pandémie de Covid-19 pour ses positions en 2020 et 2021 contre le port du masque, les restrictions de liberté et la vaccination.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlo Alberto Brusa a été responsable du Mouvement associatif des Italiens à l'étranger[2]. Durant sa carrière, il a défendu de nombreux footballeurs[3],[4] entre autres Franck Ribéry[5],[6], Didier Deschamps ou Zinédine Zidane[7].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlo Alberto Brusa a été responsable du Mouvement associatif des Italiens à l'étranger. Durant sa carrière, il a défendu de nombreux footballeurs, entre autres Franck Ribéry Didier Deschamps ou Zinédine Zidane.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Prises de position</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2019, il prend une position sur le média Russia Today en faveur du mouvement des Gilets jaunes[1]. En avril 2020, il fonde Réaction 19, une association à l'origine de plusieurs plaintes contre les masques ou les vaccins[8], se positionnant ainsi au sein des mouvements d'opposition aux mesures de lutte contre la pandémie de Covid-19[9]. Il est également un opposant au passe sanitaire français dont il est considéré comme une figure principale de sa contestation avec Fabrice Di Vizio[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2019, il prend une position sur le média Russia Today en faveur du mouvement des Gilets jaunes. En avril 2020, il fonde Réaction 19, une association à l'origine de plusieurs plaintes contre les masques ou les vaccins, se positionnant ainsi au sein des mouvements d'opposition aux mesures de lutte contre la pandémie de Covid-19. Il est également un opposant au passe sanitaire français dont il est considéré comme une figure principale de sa contestation avec Fabrice Di Vizio.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Désinformation pendant la pandémie de Covid-19</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En novembre 2020, Carlo Alberto Brusa devient l'avocat des producteurs du film conspirationniste Hold-up. Par ailleurs, il a été l'avocat de Martine Wonner, et a contribué directement à la désinformation sur la pandémie de Covid-19, notamment à propos des masques et des vaccins[7],[11]. Par exemple, Carlo Alberto Brusa prétend que les codes QR, utilisés pour les pass sanitaires, ont été créés à l'origine par les services de renseignement israéliens (Mossad)[12]. De même, dans une publication partagée sur le réseau Twitter, il prétend que la vaccination a entraîné près d'1,4 million d'effets secondaires indésirables, en citant de façon inexacte des chiffres du site EudraVigilance de l'Agence européenne des médicaments, qui recense les effets indésirables des médicaments[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En novembre 2020, Carlo Alberto Brusa devient l'avocat des producteurs du film conspirationniste Hold-up. Par ailleurs, il a été l'avocat de Martine Wonner, et a contribué directement à la désinformation sur la pandémie de Covid-19, notamment à propos des masques et des vaccins,. Par exemple, Carlo Alberto Brusa prétend que les codes QR, utilisés pour les pass sanitaires, ont été créés à l'origine par les services de renseignement israéliens (Mossad). De même, dans une publication partagée sur le réseau Twitter, il prétend que la vaccination a entraîné près d'1,4 million d'effets secondaires indésirables, en citant de façon inexacte des chiffres du site EudraVigilance de l'Agence européenne des médicaments, qui recense les effets indésirables des médicaments.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pour un lendemain sans libertés volées, en collaboration avec Hervé Lozac'h, préface de Nicole Delépine, avant-propos de Martine Wonner, Éditions Trédaniel, 172 p., 2023  (ISBN 978-2813229595)</t>
         </is>
